--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
@@ -540,10 +540,10 @@
         <v>1.747724</v>
       </c>
       <c r="I2">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883126</v>
       </c>
       <c r="J2">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883125</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.418229333333334</v>
+        <v>3.618510333333333</v>
       </c>
       <c r="N2">
-        <v>19.254688</v>
+        <v>10.855531</v>
       </c>
       <c r="O2">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="P2">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="Q2">
-        <v>3.739097814456889</v>
+        <v>2.108052451271555</v>
       </c>
       <c r="R2">
-        <v>33.65188033011201</v>
+        <v>18.972472061444</v>
       </c>
       <c r="S2">
-        <v>0.3923131669150081</v>
+        <v>0.133923004302414</v>
       </c>
       <c r="T2">
-        <v>0.3923131669150081</v>
+        <v>0.133923004302414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.747724</v>
       </c>
       <c r="I3">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883126</v>
       </c>
       <c r="J3">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883125</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>11.582076</v>
       </c>
       <c r="O3">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="P3">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="Q3">
         <v>2.249141355002667</v>
@@ -632,10 +632,10 @@
         <v>20.242272195024</v>
       </c>
       <c r="S3">
-        <v>0.2359841361755802</v>
+        <v>0.1428862774173724</v>
       </c>
       <c r="T3">
-        <v>0.2359841361755801</v>
+        <v>0.1428862774173724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.747724</v>
       </c>
       <c r="I4">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883126</v>
       </c>
       <c r="J4">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883125</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.776152666666666</v>
+        <v>12.45127566666667</v>
       </c>
       <c r="N4">
-        <v>14.328458</v>
+        <v>37.353827</v>
       </c>
       <c r="O4">
-        <v>0.3172453796418847</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="P4">
-        <v>0.3172453796418846</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="Q4">
-        <v>2.782465547732444</v>
+        <v>7.253797771083111</v>
       </c>
       <c r="R4">
-        <v>25.042189929592</v>
+        <v>65.284179939748</v>
       </c>
       <c r="S4">
-        <v>0.2919415123729184</v>
+        <v>0.4608283771685261</v>
       </c>
       <c r="T4">
-        <v>0.2919415123729183</v>
+        <v>0.460828377168526</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05049433333333334</v>
+        <v>0.2072096666666667</v>
       </c>
       <c r="H5">
-        <v>0.151483</v>
+        <v>0.621629</v>
       </c>
       <c r="I5">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="J5">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.418229333333334</v>
+        <v>3.618510333333333</v>
       </c>
       <c r="N5">
-        <v>19.254688</v>
+        <v>10.855531</v>
       </c>
       <c r="O5">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="P5">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="Q5">
-        <v>0.3240842113671111</v>
+        <v>0.7497903199998888</v>
       </c>
       <c r="R5">
-        <v>2.916757902304</v>
+        <v>6.748112879998999</v>
       </c>
       <c r="S5">
-        <v>0.03400352427716629</v>
+        <v>0.0476336213506854</v>
       </c>
       <c r="T5">
-        <v>0.03400352427716629</v>
+        <v>0.04763362135068541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05049433333333334</v>
+        <v>0.2072096666666667</v>
       </c>
       <c r="H6">
-        <v>0.151483</v>
+        <v>0.621629</v>
       </c>
       <c r="I6">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="J6">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>11.582076</v>
       </c>
       <c r="O6">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="P6">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="Q6">
-        <v>0.1949430687453333</v>
+        <v>0.7999727024226667</v>
       </c>
       <c r="R6">
-        <v>1.754487618708</v>
+        <v>7.199754321804</v>
       </c>
       <c r="S6">
-        <v>0.02045379299036084</v>
+        <v>0.05082167078136123</v>
       </c>
       <c r="T6">
-        <v>0.02045379299036084</v>
+        <v>0.05082167078136123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05049433333333334</v>
+        <v>0.2072096666666667</v>
       </c>
       <c r="H7">
-        <v>0.151483</v>
+        <v>0.621629</v>
       </c>
       <c r="I7">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="J7">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.776152666666666</v>
+        <v>12.45127566666667</v>
       </c>
       <c r="N7">
-        <v>14.328458</v>
+        <v>37.353827</v>
       </c>
       <c r="O7">
-        <v>0.3172453796418847</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="P7">
-        <v>0.3172453796418846</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="Q7">
-        <v>0.2411686448015556</v>
+        <v>2.580024680464777</v>
       </c>
       <c r="R7">
-        <v>2.170517803214</v>
+        <v>23.220222124183</v>
       </c>
       <c r="S7">
-        <v>0.02530386726896627</v>
+        <v>0.1639070489796408</v>
       </c>
       <c r="T7">
-        <v>0.02530386726896626</v>
+        <v>0.1639070489796408</v>
       </c>
     </row>
   </sheetData>
